--- a/DB 스키마/스키마 v1.0.0.xlsx
+++ b/DB 스키마/스키마 v1.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\SmartCage – 반려동물 임시 보관 IoT 시스템\DB 스키마\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\DB 스키마\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F451D73-E3D4-4783-AF6E-BD07204ECA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14B5A6-4F2A-4E18-B0FF-25A02ECC942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Cage 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,15 +255,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -271,12 +277,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -557,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -571,292 +594,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="1" t="s">
         <v>51</v>
       </c>
     </row>

--- a/DB 스키마/스키마 v1.0.0.xlsx
+++ b/DB 스키마/스키마 v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\DB 스키마\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14B5A6-4F2A-4E18-B0FF-25A02ECC942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30830D81-6A16-40F4-A20A-3C990EF205E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cage 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,167 +71,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char (PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rental</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cage 대여/할당 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rental_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer (FK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char (FK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime (nullable)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여 종료 시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여 시작 시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 사용 중 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CageLiveStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기기 상태 최신값 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>light_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내부 LED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>window_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창문 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 상태 변경 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CageSensorLiveStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_check_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>humidity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>illumination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정 시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도 (섭씨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>습도 (%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조도</t>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,7 +443,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -635,269 +483,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DB 스키마/스키마 v1.0.0.xlsx
+++ b/DB 스키마/스키마 v1.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL 29\Documents\GitHub\Smart_Cage\DB 스키마\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30830D81-6A16-40F4-A20A-3C990EF205E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7CCEE-7851-40FA-8A10-92DD3D59A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Cage 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>사용자 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>led_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선풍기 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,10 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -428,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -494,6 +519,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
